--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1616.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1616.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.164841050212135</v>
+        <v>0.7097079753875732</v>
       </c>
       <c r="B1">
-        <v>2.712662279546971</v>
+        <v>2.35954737663269</v>
       </c>
       <c r="C1">
-        <v>4.610880509914021</v>
+        <v>4.994473934173584</v>
       </c>
       <c r="D1">
-        <v>2.196165190447407</v>
+        <v>2.973145723342896</v>
       </c>
       <c r="E1">
-        <v>1.052547098883184</v>
+        <v>0.8116840720176697</v>
       </c>
     </row>
   </sheetData>
